--- a/Ergebnisse_Summary_Reeval/Reeval_Halton_Modell_2/Reeval_Halton_Modell_2_summary.xlsx
+++ b/Ergebnisse_Summary_Reeval/Reeval_Halton_Modell_2/Reeval_Halton_Modell_2_summary.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="91">
   <si>
     <t>timestamp</t>
   </si>
@@ -79,6 +79,21 @@
     <t>2025-11-22 12:37:11</t>
   </si>
   <si>
+    <t>2025-12-23 22:28:55</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:28:56</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:28:57</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:28:58</t>
+  </si>
+  <si>
+    <t>2025-12-23 22:28:59</t>
+  </si>
+  <si>
     <t>Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0</t>
   </si>
   <si>
@@ -182,6 +197,96 @@
   </si>
   <si>
     <t>Ergebnisse/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_486.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_124.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_174.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_247.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_270.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_312.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_358.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_363.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_422.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_444.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_0_80.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_214.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_221.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_323.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_330.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_358.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_374.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_460.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_466.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_474.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_42_493.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_109.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_182.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_201.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_251.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_253.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_333.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_448.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_465.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_477.keras</t>
+  </si>
+  <si>
+    <t>Ergebnisse_Teil_1/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999/models/Study_15_10_2025_Halton_Modell_2_KS_Holdout_seed_999_486.keras</t>
   </si>
 </sst>
 </file>
@@ -539,7 +644,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I91"/>
+  <dimension ref="A1:I121"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -579,13 +684,13 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C2">
         <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -600,7 +705,7 @@
         <v>0.03748254881921687</v>
       </c>
       <c r="I2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -608,13 +713,13 @@
         <v>9</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C3">
         <v>174</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -629,7 +734,7 @@
         <v>0.03394473325263547</v>
       </c>
       <c r="I3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -637,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C4">
         <v>247</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -658,7 +763,7 @@
         <v>-0.6122359711577925</v>
       </c>
       <c r="I4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -666,13 +771,13 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C5">
         <v>270</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -687,7 +792,7 @@
         <v>-0.5214674452531429</v>
       </c>
       <c r="I5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -695,13 +800,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C6">
         <v>312</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -716,7 +821,7 @@
         <v>-0.167147585769053</v>
       </c>
       <c r="I6" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -724,13 +829,13 @@
         <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>358</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -745,7 +850,7 @@
         <v>0.1532491222707876</v>
       </c>
       <c r="I7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -753,13 +858,13 @@
         <v>10</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8">
         <v>363</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -774,7 +879,7 @@
         <v>-0.143516037612978</v>
       </c>
       <c r="I8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -782,13 +887,13 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9">
         <v>422</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -803,7 +908,7 @@
         <v>-0.1735830638558966</v>
       </c>
       <c r="I9" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -811,13 +916,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C10">
         <v>444</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -832,7 +937,7 @@
         <v>0.04084059352835334</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -840,13 +945,13 @@
         <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C11">
         <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -861,7 +966,7 @@
         <v>-0.2039218830731313</v>
       </c>
       <c r="I11" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -869,13 +974,13 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C12">
         <v>214</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -890,7 +995,7 @@
         <v>-0.2350183283741114</v>
       </c>
       <c r="I12" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -898,13 +1003,13 @@
         <v>10</v>
       </c>
       <c r="B13" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C13">
         <v>221</v>
       </c>
       <c r="D13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -919,7 +1024,7 @@
         <v>0.04791026939818788</v>
       </c>
       <c r="I13" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -927,13 +1032,13 @@
         <v>10</v>
       </c>
       <c r="B14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14">
         <v>323</v>
       </c>
       <c r="D14" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E14">
         <v>2</v>
@@ -948,7 +1053,7 @@
         <v>-0.1538932893292304</v>
       </c>
       <c r="I14" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -956,13 +1061,13 @@
         <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C15">
         <v>330</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>2</v>
@@ -977,7 +1082,7 @@
         <v>-0.1214219465243116</v>
       </c>
       <c r="I15" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -985,13 +1090,13 @@
         <v>10</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C16">
         <v>358</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E16">
         <v>2</v>
@@ -1006,7 +1111,7 @@
         <v>-0.2883234187966217</v>
       </c>
       <c r="I16" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -1014,13 +1119,13 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C17">
         <v>374</v>
       </c>
       <c r="D17" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E17">
         <v>2</v>
@@ -1035,7 +1140,7 @@
         <v>-0.09755096965029875</v>
       </c>
       <c r="I17" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -1043,13 +1148,13 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C18">
         <v>460</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E18">
         <v>2</v>
@@ -1064,7 +1169,7 @@
         <v>0.1794516127670202</v>
       </c>
       <c r="I18" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1072,13 +1177,13 @@
         <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C19">
         <v>466</v>
       </c>
       <c r="D19" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E19">
         <v>2</v>
@@ -1093,7 +1198,7 @@
         <v>-0.2265080516735727</v>
       </c>
       <c r="I19" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1101,13 +1206,13 @@
         <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C20">
         <v>474</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E20">
         <v>2</v>
@@ -1122,7 +1227,7 @@
         <v>0.0009383915979743751</v>
       </c>
       <c r="I20" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1130,13 +1235,13 @@
         <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21">
         <v>493</v>
       </c>
       <c r="D21" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E21">
         <v>2</v>
@@ -1151,7 +1256,7 @@
         <v>-0.2558395038341359</v>
       </c>
       <c r="I21" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:9">
@@ -1159,13 +1264,13 @@
         <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22">
         <v>109</v>
       </c>
       <c r="D22" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E22">
         <v>2</v>
@@ -1180,7 +1285,7 @@
         <v>-0.3468806380456297</v>
       </c>
       <c r="I22" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:9">
@@ -1188,13 +1293,13 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C23">
         <v>182</v>
       </c>
       <c r="D23" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E23">
         <v>2</v>
@@ -1209,7 +1314,7 @@
         <v>-0.1033736355086947</v>
       </c>
       <c r="I23" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1217,13 +1322,13 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C24">
         <v>201</v>
       </c>
       <c r="D24" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E24">
         <v>2</v>
@@ -1238,7 +1343,7 @@
         <v>0.2821066215126732</v>
       </c>
       <c r="I24" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:9">
@@ -1246,13 +1351,13 @@
         <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C25">
         <v>251</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E25">
         <v>2</v>
@@ -1267,7 +1372,7 @@
         <v>0.02743391134851869</v>
       </c>
       <c r="I25" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1275,13 +1380,13 @@
         <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C26">
         <v>253</v>
       </c>
       <c r="D26" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E26">
         <v>2</v>
@@ -1296,7 +1401,7 @@
         <v>0.02090099068510187</v>
       </c>
       <c r="I26" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="27" spans="1:9">
@@ -1304,13 +1409,13 @@
         <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27">
         <v>333</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E27">
         <v>2</v>
@@ -1325,7 +1430,7 @@
         <v>0.06310316488141643</v>
       </c>
       <c r="I27" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:9">
@@ -1333,13 +1438,13 @@
         <v>12</v>
       </c>
       <c r="B28" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C28">
         <v>448</v>
       </c>
       <c r="D28" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E28">
         <v>2</v>
@@ -1354,7 +1459,7 @@
         <v>0.06397223675415198</v>
       </c>
       <c r="I28" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1362,13 +1467,13 @@
         <v>12</v>
       </c>
       <c r="B29" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C29">
         <v>465</v>
       </c>
       <c r="D29" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E29">
         <v>2</v>
@@ -1383,7 +1488,7 @@
         <v>0.1121128557728897</v>
       </c>
       <c r="I29" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -1391,13 +1496,13 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C30">
         <v>477</v>
       </c>
       <c r="D30" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E30">
         <v>2</v>
@@ -1412,7 +1517,7 @@
         <v>-0.1278248711031147</v>
       </c>
       <c r="I30" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31" spans="1:9">
@@ -1420,13 +1525,13 @@
         <v>12</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C31">
         <v>486</v>
       </c>
       <c r="D31" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E31">
         <v>2</v>
@@ -1441,7 +1546,7 @@
         <v>-0.3294932600021347</v>
       </c>
       <c r="I31" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -1449,13 +1554,13 @@
         <v>13</v>
       </c>
       <c r="B32" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C32">
         <v>124</v>
       </c>
       <c r="D32" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E32">
         <v>2</v>
@@ -1470,7 +1575,7 @@
         <v>0.03748254881921687</v>
       </c>
       <c r="I32" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -1478,13 +1583,13 @@
         <v>13</v>
       </c>
       <c r="B33" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C33">
         <v>174</v>
       </c>
       <c r="D33" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E33">
         <v>2</v>
@@ -1499,7 +1604,7 @@
         <v>0.03394473325263547</v>
       </c>
       <c r="I33" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -1507,13 +1612,13 @@
         <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C34">
         <v>247</v>
       </c>
       <c r="D34" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E34">
         <v>2</v>
@@ -1528,7 +1633,7 @@
         <v>-0.6122359711577925</v>
       </c>
       <c r="I34" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -1536,13 +1641,13 @@
         <v>13</v>
       </c>
       <c r="B35" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C35">
         <v>270</v>
       </c>
       <c r="D35" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E35">
         <v>2</v>
@@ -1557,7 +1662,7 @@
         <v>-0.5214674452531429</v>
       </c>
       <c r="I35" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -1565,13 +1670,13 @@
         <v>13</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C36">
         <v>312</v>
       </c>
       <c r="D36" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E36">
         <v>2</v>
@@ -1586,7 +1691,7 @@
         <v>-0.167147585769053</v>
       </c>
       <c r="I36" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -1594,13 +1699,13 @@
         <v>13</v>
       </c>
       <c r="B37" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>358</v>
       </c>
       <c r="D37" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E37">
         <v>2</v>
@@ -1615,7 +1720,7 @@
         <v>0.1532491222707876</v>
       </c>
       <c r="I37" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -1623,13 +1728,13 @@
         <v>13</v>
       </c>
       <c r="B38" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38">
         <v>363</v>
       </c>
       <c r="D38" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E38">
         <v>2</v>
@@ -1644,7 +1749,7 @@
         <v>-0.143516037612978</v>
       </c>
       <c r="I38" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -1652,13 +1757,13 @@
         <v>14</v>
       </c>
       <c r="B39" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C39">
         <v>422</v>
       </c>
       <c r="D39" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E39">
         <v>2</v>
@@ -1673,7 +1778,7 @@
         <v>-0.1735830638558966</v>
       </c>
       <c r="I39" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -1681,13 +1786,13 @@
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C40">
         <v>444</v>
       </c>
       <c r="D40" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E40">
         <v>2</v>
@@ -1702,7 +1807,7 @@
         <v>0.04084059352835334</v>
       </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -1710,13 +1815,13 @@
         <v>14</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C41">
         <v>80</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E41">
         <v>2</v>
@@ -1731,7 +1836,7 @@
         <v>-0.2039218830731313</v>
       </c>
       <c r="I41" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -1739,13 +1844,13 @@
         <v>14</v>
       </c>
       <c r="B42" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C42">
         <v>214</v>
       </c>
       <c r="D42" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E42">
         <v>2</v>
@@ -1760,7 +1865,7 @@
         <v>-0.2350183283741114</v>
       </c>
       <c r="I42" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1768,13 +1873,13 @@
         <v>14</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C43">
         <v>221</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E43">
         <v>2</v>
@@ -1789,7 +1894,7 @@
         <v>0.04791026939818788</v>
       </c>
       <c r="I43" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -1797,13 +1902,13 @@
         <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C44">
         <v>323</v>
       </c>
       <c r="D44" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E44">
         <v>2</v>
@@ -1818,7 +1923,7 @@
         <v>-0.1538932893292304</v>
       </c>
       <c r="I44" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -1826,13 +1931,13 @@
         <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C45">
         <v>330</v>
       </c>
       <c r="D45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E45">
         <v>2</v>
@@ -1847,7 +1952,7 @@
         <v>-0.1214219465243116</v>
       </c>
       <c r="I45" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -1855,13 +1960,13 @@
         <v>14</v>
       </c>
       <c r="B46" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C46">
         <v>358</v>
       </c>
       <c r="D46" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E46">
         <v>2</v>
@@ -1876,7 +1981,7 @@
         <v>-0.2883234187966217</v>
       </c>
       <c r="I46" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -1884,13 +1989,13 @@
         <v>14</v>
       </c>
       <c r="B47" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C47">
         <v>374</v>
       </c>
       <c r="D47" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E47">
         <v>2</v>
@@ -1905,7 +2010,7 @@
         <v>-0.09755096965029875</v>
       </c>
       <c r="I47" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1913,13 +2018,13 @@
         <v>14</v>
       </c>
       <c r="B48" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C48">
         <v>460</v>
       </c>
       <c r="D48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E48">
         <v>2</v>
@@ -1934,7 +2039,7 @@
         <v>0.1794516127670202</v>
       </c>
       <c r="I48" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -1942,13 +2047,13 @@
         <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C49">
         <v>466</v>
       </c>
       <c r="D49" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E49">
         <v>2</v>
@@ -1963,7 +2068,7 @@
         <v>-0.2265080516735727</v>
       </c>
       <c r="I49" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -1971,13 +2076,13 @@
         <v>15</v>
       </c>
       <c r="B50" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C50">
         <v>474</v>
       </c>
       <c r="D50" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E50">
         <v>2</v>
@@ -1992,7 +2097,7 @@
         <v>0.0009383915979743751</v>
       </c>
       <c r="I50" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -2000,13 +2105,13 @@
         <v>15</v>
       </c>
       <c r="B51" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C51">
         <v>493</v>
       </c>
       <c r="D51" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E51">
         <v>2</v>
@@ -2021,7 +2126,7 @@
         <v>-0.2558395038341359</v>
       </c>
       <c r="I51" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -2029,13 +2134,13 @@
         <v>15</v>
       </c>
       <c r="B52" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C52">
         <v>109</v>
       </c>
       <c r="D52" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E52">
         <v>2</v>
@@ -2050,7 +2155,7 @@
         <v>-0.3468806380456297</v>
       </c>
       <c r="I52" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -2058,13 +2163,13 @@
         <v>15</v>
       </c>
       <c r="B53" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C53">
         <v>182</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E53">
         <v>2</v>
@@ -2079,7 +2184,7 @@
         <v>-0.1033736355086947</v>
       </c>
       <c r="I53" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -2087,13 +2192,13 @@
         <v>15</v>
       </c>
       <c r="B54" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C54">
         <v>201</v>
       </c>
       <c r="D54" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E54">
         <v>2</v>
@@ -2108,7 +2213,7 @@
         <v>0.2821066215126732</v>
       </c>
       <c r="I54" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -2116,13 +2221,13 @@
         <v>15</v>
       </c>
       <c r="B55" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>251</v>
       </c>
       <c r="D55" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E55">
         <v>2</v>
@@ -2137,7 +2242,7 @@
         <v>0.02743391134851869</v>
       </c>
       <c r="I55" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -2145,13 +2250,13 @@
         <v>15</v>
       </c>
       <c r="B56" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C56">
         <v>253</v>
       </c>
       <c r="D56" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E56">
         <v>2</v>
@@ -2166,7 +2271,7 @@
         <v>0.02090099068510187</v>
       </c>
       <c r="I56" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -2174,13 +2279,13 @@
         <v>15</v>
       </c>
       <c r="B57" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C57">
         <v>333</v>
       </c>
       <c r="D57" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E57">
         <v>2</v>
@@ -2195,7 +2300,7 @@
         <v>0.06310316488141643</v>
       </c>
       <c r="I57" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -2203,13 +2308,13 @@
         <v>16</v>
       </c>
       <c r="B58" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C58">
         <v>448</v>
       </c>
       <c r="D58" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E58">
         <v>2</v>
@@ -2224,7 +2329,7 @@
         <v>0.06397223675415198</v>
       </c>
       <c r="I58" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -2232,13 +2337,13 @@
         <v>16</v>
       </c>
       <c r="B59" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C59">
         <v>465</v>
       </c>
       <c r="D59" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E59">
         <v>2</v>
@@ -2253,7 +2358,7 @@
         <v>0.1121128557728897</v>
       </c>
       <c r="I59" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -2261,13 +2366,13 @@
         <v>16</v>
       </c>
       <c r="B60" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C60">
         <v>477</v>
       </c>
       <c r="D60" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E60">
         <v>2</v>
@@ -2282,7 +2387,7 @@
         <v>-0.1278248711031147</v>
       </c>
       <c r="I60" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -2290,13 +2395,13 @@
         <v>16</v>
       </c>
       <c r="B61" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C61">
         <v>486</v>
       </c>
       <c r="D61" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E61">
         <v>2</v>
@@ -2311,7 +2416,7 @@
         <v>-0.3294932600021347</v>
       </c>
       <c r="I61" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -2319,13 +2424,13 @@
         <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C62">
         <v>124</v>
       </c>
       <c r="D62" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E62">
         <v>2</v>
@@ -2340,7 +2445,7 @@
         <v>0.03748254881921687</v>
       </c>
       <c r="I62" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -2348,13 +2453,13 @@
         <v>17</v>
       </c>
       <c r="B63" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C63">
         <v>174</v>
       </c>
       <c r="D63" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E63">
         <v>2</v>
@@ -2369,7 +2474,7 @@
         <v>0.03394473325263547</v>
       </c>
       <c r="I63" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -2377,13 +2482,13 @@
         <v>17</v>
       </c>
       <c r="B64" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C64">
         <v>247</v>
       </c>
       <c r="D64" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E64">
         <v>2</v>
@@ -2398,7 +2503,7 @@
         <v>-0.6122359711577925</v>
       </c>
       <c r="I64" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -2406,13 +2511,13 @@
         <v>17</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C65">
         <v>270</v>
       </c>
       <c r="D65" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E65">
         <v>2</v>
@@ -2427,7 +2532,7 @@
         <v>-0.5214674452531429</v>
       </c>
       <c r="I65" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -2435,13 +2540,13 @@
         <v>17</v>
       </c>
       <c r="B66" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C66">
         <v>312</v>
       </c>
       <c r="D66" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E66">
         <v>2</v>
@@ -2456,7 +2561,7 @@
         <v>-0.167147585769053</v>
       </c>
       <c r="I66" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -2464,13 +2569,13 @@
         <v>17</v>
       </c>
       <c r="B67" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C67">
         <v>358</v>
       </c>
       <c r="D67" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E67">
         <v>2</v>
@@ -2485,7 +2590,7 @@
         <v>0.1532491222707876</v>
       </c>
       <c r="I67" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -2493,13 +2598,13 @@
         <v>17</v>
       </c>
       <c r="B68" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C68">
         <v>363</v>
       </c>
       <c r="D68" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E68">
         <v>2</v>
@@ -2514,7 +2619,7 @@
         <v>-0.143516037612978</v>
       </c>
       <c r="I68" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -2522,13 +2627,13 @@
         <v>17</v>
       </c>
       <c r="B69" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C69">
         <v>422</v>
       </c>
       <c r="D69" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E69">
         <v>2</v>
@@ -2543,7 +2648,7 @@
         <v>-0.1735830638558966</v>
       </c>
       <c r="I69" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -2551,13 +2656,13 @@
         <v>18</v>
       </c>
       <c r="B70" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C70">
         <v>444</v>
       </c>
       <c r="D70" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E70">
         <v>2</v>
@@ -2572,7 +2677,7 @@
         <v>0.04084059352835334</v>
       </c>
       <c r="I70" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -2580,13 +2685,13 @@
         <v>18</v>
       </c>
       <c r="B71" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C71">
         <v>80</v>
       </c>
       <c r="D71" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E71">
         <v>2</v>
@@ -2601,7 +2706,7 @@
         <v>-0.2039218830731313</v>
       </c>
       <c r="I71" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -2609,13 +2714,13 @@
         <v>18</v>
       </c>
       <c r="B72" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C72">
         <v>214</v>
       </c>
       <c r="D72" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E72">
         <v>2</v>
@@ -2630,7 +2735,7 @@
         <v>-0.2350183283741114</v>
       </c>
       <c r="I72" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -2638,13 +2743,13 @@
         <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C73">
         <v>221</v>
       </c>
       <c r="D73" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E73">
         <v>2</v>
@@ -2659,7 +2764,7 @@
         <v>0.04791026939818788</v>
       </c>
       <c r="I73" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -2667,13 +2772,13 @@
         <v>18</v>
       </c>
       <c r="B74" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C74">
         <v>323</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E74">
         <v>2</v>
@@ -2688,7 +2793,7 @@
         <v>-0.1538932893292304</v>
       </c>
       <c r="I74" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -2696,13 +2801,13 @@
         <v>18</v>
       </c>
       <c r="B75" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C75">
         <v>330</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E75">
         <v>2</v>
@@ -2717,7 +2822,7 @@
         <v>-0.1214219465243116</v>
       </c>
       <c r="I75" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -2725,13 +2830,13 @@
         <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C76">
         <v>358</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E76">
         <v>2</v>
@@ -2746,7 +2851,7 @@
         <v>-0.2883234187966217</v>
       </c>
       <c r="I76" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -2754,13 +2859,13 @@
         <v>18</v>
       </c>
       <c r="B77" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C77">
         <v>374</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E77">
         <v>2</v>
@@ -2775,7 +2880,7 @@
         <v>-0.09755096965029875</v>
       </c>
       <c r="I77" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -2783,13 +2888,13 @@
         <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C78">
         <v>460</v>
       </c>
       <c r="D78" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E78">
         <v>2</v>
@@ -2804,7 +2909,7 @@
         <v>0.1794516127670202</v>
       </c>
       <c r="I78" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -2812,13 +2917,13 @@
         <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C79">
         <v>466</v>
       </c>
       <c r="D79" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E79">
         <v>2</v>
@@ -2833,7 +2938,7 @@
         <v>-0.2265080516735727</v>
       </c>
       <c r="I79" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -2841,13 +2946,13 @@
         <v>18</v>
       </c>
       <c r="B80" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C80">
         <v>474</v>
       </c>
       <c r="D80" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E80">
         <v>2</v>
@@ -2862,7 +2967,7 @@
         <v>0.0009383915979743751</v>
       </c>
       <c r="I80" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -2870,13 +2975,13 @@
         <v>19</v>
       </c>
       <c r="B81" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C81">
         <v>493</v>
       </c>
       <c r="D81" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E81">
         <v>2</v>
@@ -2891,7 +2996,7 @@
         <v>-0.2558395038341359</v>
       </c>
       <c r="I81" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -2899,16 +3004,16 @@
         <v>19</v>
       </c>
       <c r="B82" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C82">
         <v>109</v>
       </c>
       <c r="D82" t="s">
-        <v>24</v>
-      </c>
-      <c r="E82" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E82">
+        <v>2</v>
       </c>
       <c r="F82">
         <v>100</v>
@@ -2920,7 +3025,7 @@
         <v>-0.3468806380456297</v>
       </c>
       <c r="I82" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -2928,16 +3033,16 @@
         <v>19</v>
       </c>
       <c r="B83" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C83">
         <v>182</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
-      </c>
-      <c r="E83" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E83">
+        <v>2</v>
       </c>
       <c r="F83">
         <v>100</v>
@@ -2949,7 +3054,7 @@
         <v>-0.1033736355086947</v>
       </c>
       <c r="I83" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -2957,16 +3062,16 @@
         <v>19</v>
       </c>
       <c r="B84" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C84">
         <v>201</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
-      </c>
-      <c r="E84" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E84">
+        <v>2</v>
       </c>
       <c r="F84">
         <v>100</v>
@@ -2978,7 +3083,7 @@
         <v>0.2821066215126732</v>
       </c>
       <c r="I84" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -2986,16 +3091,16 @@
         <v>19</v>
       </c>
       <c r="B85" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C85">
         <v>251</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
-      </c>
-      <c r="E85" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E85">
+        <v>2</v>
       </c>
       <c r="F85">
         <v>100</v>
@@ -3007,7 +3112,7 @@
         <v>0.02743391134851869</v>
       </c>
       <c r="I85" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -3015,16 +3120,16 @@
         <v>19</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C86">
         <v>253</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
-      </c>
-      <c r="E86" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E86">
+        <v>2</v>
       </c>
       <c r="F86">
         <v>100</v>
@@ -3036,7 +3141,7 @@
         <v>0.02090099068510187</v>
       </c>
       <c r="I86" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -3044,16 +3149,16 @@
         <v>19</v>
       </c>
       <c r="B87" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C87">
         <v>333</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
-      </c>
-      <c r="E87" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E87">
+        <v>2</v>
       </c>
       <c r="F87">
         <v>100</v>
@@ -3065,7 +3170,7 @@
         <v>0.06310316488141643</v>
       </c>
       <c r="I87" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -3073,16 +3178,16 @@
         <v>19</v>
       </c>
       <c r="B88" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C88">
         <v>448</v>
       </c>
       <c r="D88" t="s">
-        <v>24</v>
-      </c>
-      <c r="E88" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E88">
+        <v>2</v>
       </c>
       <c r="F88">
         <v>100</v>
@@ -3094,7 +3199,7 @@
         <v>0.06397223675415198</v>
       </c>
       <c r="I88" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -3102,16 +3207,16 @@
         <v>19</v>
       </c>
       <c r="B89" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C89">
         <v>465</v>
       </c>
       <c r="D89" t="s">
-        <v>24</v>
-      </c>
-      <c r="E89" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E89">
+        <v>2</v>
       </c>
       <c r="F89">
         <v>100</v>
@@ -3123,7 +3228,7 @@
         <v>0.1121128557728897</v>
       </c>
       <c r="I89" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -3131,16 +3236,16 @@
         <v>19</v>
       </c>
       <c r="B90" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C90">
         <v>477</v>
       </c>
       <c r="D90" t="s">
-        <v>24</v>
-      </c>
-      <c r="E90" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E90">
+        <v>2</v>
       </c>
       <c r="F90">
         <v>100</v>
@@ -3152,7 +3257,7 @@
         <v>-0.1278248711031147</v>
       </c>
       <c r="I90" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -3160,16 +3265,16 @@
         <v>20</v>
       </c>
       <c r="B91" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C91">
         <v>486</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
-      </c>
-      <c r="E91" t="s">
-        <v>25</v>
+        <v>29</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
       </c>
       <c r="F91">
         <v>100</v>
@@ -3181,7 +3286,877 @@
         <v>-0.3294932600021347</v>
       </c>
       <c r="I91" t="s">
-        <v>55</v>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>26</v>
+      </c>
+      <c r="C92">
+        <v>124</v>
+      </c>
+      <c r="D92" t="s">
+        <v>29</v>
+      </c>
+      <c r="E92">
+        <v>2</v>
+      </c>
+      <c r="F92">
+        <v>100</v>
+      </c>
+      <c r="G92">
+        <v>10.30586882567648</v>
+      </c>
+      <c r="H92">
+        <v>0.03748254881921687</v>
+      </c>
+      <c r="I92" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
+      <c r="A93" t="s">
+        <v>22</v>
+      </c>
+      <c r="B93" t="s">
+        <v>26</v>
+      </c>
+      <c r="C93">
+        <v>174</v>
+      </c>
+      <c r="D93" t="s">
+        <v>29</v>
+      </c>
+      <c r="E93">
+        <v>2</v>
+      </c>
+      <c r="F93">
+        <v>100</v>
+      </c>
+      <c r="G93">
+        <v>10.32479125273661</v>
+      </c>
+      <c r="H93">
+        <v>0.03394478077426799</v>
+      </c>
+      <c r="I93" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
+      <c r="A94" t="s">
+        <v>22</v>
+      </c>
+      <c r="B94" t="s">
+        <v>26</v>
+      </c>
+      <c r="C94">
+        <v>247</v>
+      </c>
+      <c r="D94" t="s">
+        <v>29</v>
+      </c>
+      <c r="E94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <v>100</v>
+      </c>
+      <c r="G94">
+        <v>13.3381189084028</v>
+      </c>
+      <c r="H94">
+        <v>-0.6122358023122687</v>
+      </c>
+      <c r="I94" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
+      <c r="A95" t="s">
+        <v>22</v>
+      </c>
+      <c r="B95" t="s">
+        <v>26</v>
+      </c>
+      <c r="C95">
+        <v>270</v>
+      </c>
+      <c r="D95" t="s">
+        <v>29</v>
+      </c>
+      <c r="E95">
+        <v>2</v>
+      </c>
+      <c r="F95">
+        <v>100</v>
+      </c>
+      <c r="G95">
+        <v>12.95721414194615</v>
+      </c>
+      <c r="H95">
+        <v>-0.5214674452531429</v>
+      </c>
+      <c r="I95" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
+      <c r="A96" t="s">
+        <v>22</v>
+      </c>
+      <c r="B96" t="s">
+        <v>26</v>
+      </c>
+      <c r="C96">
+        <v>312</v>
+      </c>
+      <c r="D96" t="s">
+        <v>29</v>
+      </c>
+      <c r="E96">
+        <v>2</v>
+      </c>
+      <c r="F96">
+        <v>100</v>
+      </c>
+      <c r="G96">
+        <v>11.34862375910432</v>
+      </c>
+      <c r="H96">
+        <v>-0.167147617112954</v>
+      </c>
+      <c r="I96" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
+      <c r="A97" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>26</v>
+      </c>
+      <c r="C97">
+        <v>358</v>
+      </c>
+      <c r="D97" t="s">
+        <v>29</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>100</v>
+      </c>
+      <c r="G97">
+        <v>9.666252421603641</v>
+      </c>
+      <c r="H97">
+        <v>0.1532491222707876</v>
+      </c>
+      <c r="I97" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
+      <c r="A98" t="s">
+        <v>22</v>
+      </c>
+      <c r="B98" t="s">
+        <v>26</v>
+      </c>
+      <c r="C98">
+        <v>363</v>
+      </c>
+      <c r="D98" t="s">
+        <v>29</v>
+      </c>
+      <c r="E98">
+        <v>2</v>
+      </c>
+      <c r="F98">
+        <v>100</v>
+      </c>
+      <c r="G98">
+        <v>11.2331474609259</v>
+      </c>
+      <c r="H98">
+        <v>-0.143516173768927</v>
+      </c>
+      <c r="I98" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
+      <c r="A99" t="s">
+        <v>22</v>
+      </c>
+      <c r="B99" t="s">
+        <v>26</v>
+      </c>
+      <c r="C99">
+        <v>422</v>
+      </c>
+      <c r="D99" t="s">
+        <v>29</v>
+      </c>
+      <c r="E99">
+        <v>2</v>
+      </c>
+      <c r="F99">
+        <v>100</v>
+      </c>
+      <c r="G99">
+        <v>11.37986821665072</v>
+      </c>
+      <c r="H99">
+        <v>-0.1735831275948758</v>
+      </c>
+      <c r="I99" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
+      <c r="A100" t="s">
+        <v>22</v>
+      </c>
+      <c r="B100" t="s">
+        <v>26</v>
+      </c>
+      <c r="C100">
+        <v>444</v>
+      </c>
+      <c r="D100" t="s">
+        <v>29</v>
+      </c>
+      <c r="E100">
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <v>100</v>
+      </c>
+      <c r="G100">
+        <v>10.28787548651379</v>
+      </c>
+      <c r="H100">
+        <v>0.04084059352835334</v>
+      </c>
+      <c r="I100" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
+      <c r="A101" t="s">
+        <v>23</v>
+      </c>
+      <c r="B101" t="s">
+        <v>26</v>
+      </c>
+      <c r="C101">
+        <v>80</v>
+      </c>
+      <c r="D101" t="s">
+        <v>29</v>
+      </c>
+      <c r="E101">
+        <v>2</v>
+      </c>
+      <c r="F101">
+        <v>100</v>
+      </c>
+      <c r="G101">
+        <v>11.52602361076391</v>
+      </c>
+      <c r="H101">
+        <v>-0.2039221404050227</v>
+      </c>
+      <c r="I101" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
+      <c r="A102" t="s">
+        <v>23</v>
+      </c>
+      <c r="B102" t="s">
+        <v>27</v>
+      </c>
+      <c r="C102">
+        <v>214</v>
+      </c>
+      <c r="D102" t="s">
+        <v>29</v>
+      </c>
+      <c r="E102">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>100</v>
+      </c>
+      <c r="G102">
+        <v>11.67393056181832</v>
+      </c>
+      <c r="H102">
+        <v>-0.2350188976369347</v>
+      </c>
+      <c r="I102" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
+      <c r="A103" t="s">
+        <v>23</v>
+      </c>
+      <c r="B103" t="s">
+        <v>27</v>
+      </c>
+      <c r="C103">
+        <v>221</v>
+      </c>
+      <c r="D103" t="s">
+        <v>29</v>
+      </c>
+      <c r="E103">
+        <v>2</v>
+      </c>
+      <c r="F103">
+        <v>100</v>
+      </c>
+      <c r="G103">
+        <v>10.24989102985214</v>
+      </c>
+      <c r="H103">
+        <v>0.04791025343867672</v>
+      </c>
+      <c r="I103" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
+      <c r="A104" t="s">
+        <v>23</v>
+      </c>
+      <c r="B104" t="s">
+        <v>27</v>
+      </c>
+      <c r="C104">
+        <v>323</v>
+      </c>
+      <c r="D104" t="s">
+        <v>29</v>
+      </c>
+      <c r="E104">
+        <v>2</v>
+      </c>
+      <c r="F104">
+        <v>100</v>
+      </c>
+      <c r="G104">
+        <v>11.28400155846651</v>
+      </c>
+      <c r="H104">
+        <v>-0.1538933393194748</v>
+      </c>
+      <c r="I104" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
+      <c r="A105" t="s">
+        <v>23</v>
+      </c>
+      <c r="B105" t="s">
+        <v>27</v>
+      </c>
+      <c r="C105">
+        <v>330</v>
+      </c>
+      <c r="D105" t="s">
+        <v>29</v>
+      </c>
+      <c r="E105">
+        <v>2</v>
+      </c>
+      <c r="F105">
+        <v>100</v>
+      </c>
+      <c r="G105">
+        <v>11.12409841324499</v>
+      </c>
+      <c r="H105">
+        <v>-0.1214219081008177</v>
+      </c>
+      <c r="I105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
+      <c r="A106" t="s">
+        <v>23</v>
+      </c>
+      <c r="B106" t="s">
+        <v>27</v>
+      </c>
+      <c r="C106">
+        <v>358</v>
+      </c>
+      <c r="D106" t="s">
+        <v>29</v>
+      </c>
+      <c r="E106">
+        <v>2</v>
+      </c>
+      <c r="F106">
+        <v>100</v>
+      </c>
+      <c r="G106">
+        <v>11.92319881272462</v>
+      </c>
+      <c r="H106">
+        <v>-0.2883236010695962</v>
+      </c>
+      <c r="I106" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
+      <c r="A107" t="s">
+        <v>23</v>
+      </c>
+      <c r="B107" t="s">
+        <v>27</v>
+      </c>
+      <c r="C107">
+        <v>374</v>
+      </c>
+      <c r="D107" t="s">
+        <v>29</v>
+      </c>
+      <c r="E107">
+        <v>2</v>
+      </c>
+      <c r="F107">
+        <v>100</v>
+      </c>
+      <c r="G107">
+        <v>11.00506540058785</v>
+      </c>
+      <c r="H107">
+        <v>-0.097550841705905</v>
+      </c>
+      <c r="I107" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
+      <c r="A108" t="s">
+        <v>23</v>
+      </c>
+      <c r="B108" t="s">
+        <v>27</v>
+      </c>
+      <c r="C108">
+        <v>460</v>
+      </c>
+      <c r="D108" t="s">
+        <v>29</v>
+      </c>
+      <c r="E108">
+        <v>2</v>
+      </c>
+      <c r="F108">
+        <v>100</v>
+      </c>
+      <c r="G108">
+        <v>9.515517073804338</v>
+      </c>
+      <c r="H108">
+        <v>0.179451648639859</v>
+      </c>
+      <c r="I108" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
+      <c r="A109" t="s">
+        <v>24</v>
+      </c>
+      <c r="B109" t="s">
+        <v>27</v>
+      </c>
+      <c r="C109">
+        <v>466</v>
+      </c>
+      <c r="D109" t="s">
+        <v>29</v>
+      </c>
+      <c r="E109">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>100</v>
+      </c>
+      <c r="G109">
+        <v>11.63363717440477</v>
+      </c>
+      <c r="H109">
+        <v>-0.2265081027093701</v>
+      </c>
+      <c r="I109" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
+      <c r="A110" t="s">
+        <v>24</v>
+      </c>
+      <c r="B110" t="s">
+        <v>27</v>
+      </c>
+      <c r="C110">
+        <v>474</v>
+      </c>
+      <c r="D110" t="s">
+        <v>29</v>
+      </c>
+      <c r="E110">
+        <v>2</v>
+      </c>
+      <c r="F110">
+        <v>100</v>
+      </c>
+      <c r="G110">
+        <v>10.49968986607435</v>
+      </c>
+      <c r="H110">
+        <v>0.000938244870906213</v>
+      </c>
+      <c r="I110" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
+      <c r="A111" t="s">
+        <v>24</v>
+      </c>
+      <c r="B111" t="s">
+        <v>27</v>
+      </c>
+      <c r="C111">
+        <v>493</v>
+      </c>
+      <c r="D111" t="s">
+        <v>29</v>
+      </c>
+      <c r="E111">
+        <v>2</v>
+      </c>
+      <c r="F111">
+        <v>100</v>
+      </c>
+      <c r="G111">
+        <v>11.77192108009828</v>
+      </c>
+      <c r="H111">
+        <v>-0.2558393163295392</v>
+      </c>
+      <c r="I111" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
+      <c r="A112" t="s">
+        <v>24</v>
+      </c>
+      <c r="B112" t="s">
+        <v>28</v>
+      </c>
+      <c r="C112">
+        <v>109</v>
+      </c>
+      <c r="D112" t="s">
+        <v>29</v>
+      </c>
+      <c r="E112" t="s">
+        <v>30</v>
+      </c>
+      <c r="F112">
+        <v>100</v>
+      </c>
+      <c r="G112">
+        <v>12.1911557457185</v>
+      </c>
+      <c r="H112">
+        <v>-0.3468807646412611</v>
+      </c>
+      <c r="I112" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
+      <c r="A113" t="s">
+        <v>24</v>
+      </c>
+      <c r="B113" t="s">
+        <v>28</v>
+      </c>
+      <c r="C113">
+        <v>182</v>
+      </c>
+      <c r="D113" t="s">
+        <v>29</v>
+      </c>
+      <c r="E113" t="s">
+        <v>30</v>
+      </c>
+      <c r="F113">
+        <v>100</v>
+      </c>
+      <c r="G113">
+        <v>11.03422001202362</v>
+      </c>
+      <c r="H113">
+        <v>-0.1033738064188472</v>
+      </c>
+      <c r="I113" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
+      <c r="A114" t="s">
+        <v>24</v>
+      </c>
+      <c r="B114" t="s">
+        <v>28</v>
+      </c>
+      <c r="C114">
+        <v>201</v>
+      </c>
+      <c r="D114" t="s">
+        <v>29</v>
+      </c>
+      <c r="E114" t="s">
+        <v>30</v>
+      </c>
+      <c r="F114">
+        <v>100</v>
+      </c>
+      <c r="G114">
+        <v>8.900415431695468</v>
+      </c>
+      <c r="H114">
+        <v>0.2821066215126732</v>
+      </c>
+      <c r="I114" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
+      <c r="A115" t="s">
+        <v>24</v>
+      </c>
+      <c r="B115" t="s">
+        <v>28</v>
+      </c>
+      <c r="C115">
+        <v>251</v>
+      </c>
+      <c r="D115" t="s">
+        <v>29</v>
+      </c>
+      <c r="E115" t="s">
+        <v>30</v>
+      </c>
+      <c r="F115">
+        <v>100</v>
+      </c>
+      <c r="G115">
+        <v>10.35952554174582</v>
+      </c>
+      <c r="H115">
+        <v>0.02743391134851869</v>
+      </c>
+      <c r="I115" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
+      <c r="A116" t="s">
+        <v>25</v>
+      </c>
+      <c r="B116" t="s">
+        <v>28</v>
+      </c>
+      <c r="C116">
+        <v>253</v>
+      </c>
+      <c r="D116" t="s">
+        <v>29</v>
+      </c>
+      <c r="E116" t="s">
+        <v>30</v>
+      </c>
+      <c r="F116">
+        <v>100</v>
+      </c>
+      <c r="G116">
+        <v>10.39426080950162</v>
+      </c>
+      <c r="H116">
+        <v>0.02090099068510187</v>
+      </c>
+      <c r="I116" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
+      <c r="A117" t="s">
+        <v>25</v>
+      </c>
+      <c r="B117" t="s">
+        <v>28</v>
+      </c>
+      <c r="C117">
+        <v>333</v>
+      </c>
+      <c r="D117" t="s">
+        <v>29</v>
+      </c>
+      <c r="E117" t="s">
+        <v>30</v>
+      </c>
+      <c r="F117">
+        <v>100</v>
+      </c>
+      <c r="G117">
+        <v>10.16778115539046</v>
+      </c>
+      <c r="H117">
+        <v>0.06310316488141643</v>
+      </c>
+      <c r="I117" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
+      <c r="A118" t="s">
+        <v>25</v>
+      </c>
+      <c r="B118" t="s">
+        <v>28</v>
+      </c>
+      <c r="C118">
+        <v>448</v>
+      </c>
+      <c r="D118" t="s">
+        <v>29</v>
+      </c>
+      <c r="E118" t="s">
+        <v>30</v>
+      </c>
+      <c r="F118">
+        <v>100</v>
+      </c>
+      <c r="G118">
+        <v>10.16306420981178</v>
+      </c>
+      <c r="H118">
+        <v>0.06397223675415198</v>
+      </c>
+      <c r="I118" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
+      <c r="A119" t="s">
+        <v>25</v>
+      </c>
+      <c r="B119" t="s">
+        <v>28</v>
+      </c>
+      <c r="C119">
+        <v>465</v>
+      </c>
+      <c r="D119" t="s">
+        <v>29</v>
+      </c>
+      <c r="E119" t="s">
+        <v>30</v>
+      </c>
+      <c r="F119">
+        <v>100</v>
+      </c>
+      <c r="G119">
+        <v>9.898267539942241</v>
+      </c>
+      <c r="H119">
+        <v>0.1121128557728897</v>
+      </c>
+      <c r="I119" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
+      <c r="A120" t="s">
+        <v>25</v>
+      </c>
+      <c r="B120" t="s">
+        <v>28</v>
+      </c>
+      <c r="C120">
+        <v>477</v>
+      </c>
+      <c r="D120" t="s">
+        <v>29</v>
+      </c>
+      <c r="E120" t="s">
+        <v>30</v>
+      </c>
+      <c r="F120">
+        <v>100</v>
+      </c>
+      <c r="G120">
+        <v>11.15581074565229</v>
+      </c>
+      <c r="H120">
+        <v>-0.1278248711031147</v>
+      </c>
+      <c r="I120" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
+      <c r="A121" t="s">
+        <v>25</v>
+      </c>
+      <c r="B121" t="s">
+        <v>28</v>
+      </c>
+      <c r="C121">
+        <v>486</v>
+      </c>
+      <c r="D121" t="s">
+        <v>29</v>
+      </c>
+      <c r="E121" t="s">
+        <v>30</v>
+      </c>
+      <c r="F121">
+        <v>100</v>
+      </c>
+      <c r="G121">
+        <v>12.1122095051861</v>
+      </c>
+      <c r="H121">
+        <v>-0.3294932600021347</v>
+      </c>
+      <c r="I121" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
